--- a/Data/testData.xlsx
+++ b/Data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet2" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="142">
   <si>
     <t xml:space="preserve">Serial </t>
   </si>
@@ -262,10 +262,10 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t>Jany</t>
-  </si>
-  <si>
-    <t>Hegmann</t>
+    <t>Alden</t>
+  </si>
+  <si>
+    <t>Wolf-Beahan</t>
   </si>
   <si>
     <t>041/562 66 84</t>
@@ -406,43 +406,40 @@
     <t>Vseobecna zdrav. Poist</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Monahan</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Vallie</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
     <t>{"name":"TimeoutError"}</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Stephania</t>
-  </si>
-  <si>
-    <t>Bradtke</t>
-  </si>
-  <si>
-    <t>{"name":"Error"}</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Destin</t>
-  </si>
-  <si>
-    <t>Nader</t>
-  </si>
-  <si>
     <t>Test4</t>
   </si>
   <si>
-    <t>Eldridge</t>
-  </si>
-  <si>
-    <t>Cremin</t>
-  </si>
-  <si>
-    <t>{}</t>
+    <t>Corene</t>
+  </si>
+  <si>
+    <t>Bayer</t>
   </si>
 </sst>
 </file>
@@ -840,16 +837,16 @@
   <dimension ref="A1:CF5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="AY2" sqref="AY2"/>
+      <selection activeCell="BI16" sqref="BI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.6" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="21" max="21" width="10.54296875" customWidth="1"/>
-    <col min="54" max="54" width="10.90625" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" customWidth="1"/>
+    <col min="54" max="54" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" ht="15.65" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.6" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1235,7 +1232,7 @@
       </c>
       <c r="AR2" s="11">
         <f>TODAY()-20</f>
-        <v>45539</v>
+        <v>45503</v>
       </c>
       <c r="AS2" s="10" t="s">
         <v>109</v>
@@ -1348,7 +1345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" ht="15.65" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.6" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -1480,7 +1477,7 @@
       </c>
       <c r="AR3" s="11">
         <f>TODAY()-20</f>
-        <v>45539</v>
+        <v>45527</v>
       </c>
       <c r="AS3" s="10" t="s">
         <v>109</v>
@@ -1587,7 +1584,7 @@
         <v>129</v>
       </c>
       <c r="CE3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="CF3" s="15" t="s">
         <v>131</v>
@@ -1595,7 +1592,7 @@
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
@@ -1604,10 +1601,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>84</v>
@@ -1725,7 +1722,7 @@
       </c>
       <c r="AR4" s="11">
         <f>TODAY()-20</f>
-        <v>45539</v>
+        <v>45527</v>
       </c>
       <c r="AS4" s="10" t="s">
         <v>109</v>
@@ -1832,7 +1829,7 @@
         <v>129</v>
       </c>
       <c r="CE4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="CF4" s="15" t="s">
         <v>131</v>
@@ -1970,7 +1967,7 @@
       </c>
       <c r="AR5" s="11">
         <f>TODAY()-20</f>
-        <v>45539</v>
+        <v>45527</v>
       </c>
       <c r="AS5" s="10" t="s">
         <v>109</v>
@@ -2077,7 +2074,7 @@
         <v>129</v>
       </c>
       <c r="CE5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="CF5" s="15" t="s">
         <v>131</v>

--- a/Data/testData.xlsx
+++ b/Data/testData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="143">
   <si>
     <t xml:space="preserve">Serial </t>
   </si>
@@ -262,10 +262,10 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t>Damien</t>
-  </si>
-  <si>
-    <t>Beatty</t>
+    <t>Cleve</t>
+  </si>
+  <si>
+    <t>Fay</t>
   </si>
   <si>
     <t>041/562 66 84</t>
@@ -406,31 +406,34 @@
     <t>Vseobecna zdrav. Poist</t>
   </si>
   <si>
+    <t>{"name":"TimeoutError"}</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Isabell</t>
+  </si>
+  <si>
+    <t>Beahan</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Destin</t>
+  </si>
+  <si>
+    <t>Nader</t>
+  </si>
+  <si>
     <t>{"name":"Error"}</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Isabell</t>
-  </si>
-  <si>
-    <t>Beahan</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Destin</t>
-  </si>
-  <si>
-    <t>Nader</t>
   </si>
   <si>
     <t>Test4</t>
@@ -1829,7 +1832,7 @@
         <v>129</v>
       </c>
       <c r="CE4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="CF4" s="15" t="s">
         <v>131</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="5" ht="14.4" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>80</v>
@@ -1846,10 +1849,10 @@
         <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>84</v>
